--- a/biology/Histoire de la zoologie et de la botanique/Eugenie_Clark/Eugenie_Clark.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugenie_Clark/Eugenie_Clark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugenie Clark est une ichtyologiste américaine née le 4 mai 1922 à New York et morte à Sarasota (Floride) le 25 février 2015 (à 92 ans)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugenie Clark est une ichtyologiste américaine née le 4 mai 1922 à New York et morte à Sarasota (Floride) le 25 février 2015 (à 92 ans).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugenie Clark est la fille de Charles et de Yumico, née Mitomi. Elle obtient son Bachelor of Arts au Hunter College en 1942, puis, en 1946, son Master of Arts à l’université de New York et, en 1950, son Ph.D.. Sa thèse présente des recherches sur Platys sp. et Xiphophorus. Pendant ses études, elle est chercheuse assistante à l’Institut Scripps d’Océanographie de 1946 à 1947. De 1948 à 1966, elle travaille au American Museum of Natural History.
 Elle se marie avec Ilias Konstantinu le 4 novembre 1950, dont elle aura quatre enfants : Hera, Iris, Themistokles et Nikolas. En 1954, elle commence à travailler comme chercheuse associée au département de l’étude du comportement animal.
